--- a/Studies/Demographic Questionnares/DemographicDetails.xlsx
+++ b/Studies/Demographic Questionnares/DemographicDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Participant Demographic Questionnare Details</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>Ipad, Iphone</t>
+  </si>
+  <si>
+    <t>Social Networking</t>
+  </si>
+  <si>
+    <t>Tablet, Iphone</t>
+  </si>
+  <si>
+    <t>Staff Nurse</t>
+  </si>
+  <si>
+    <t>Social Networking, Work related</t>
+  </si>
+  <si>
+    <t>Iphone 4S, Kindle Fire HD</t>
   </si>
 </sst>
 </file>
@@ -226,13 +241,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,6 +982,94 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42348</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>

--- a/Studies/Demographic Questionnares/DemographicDetails.xlsx
+++ b/Studies/Demographic Questionnares/DemographicDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Participant Demographic Questionnare Details</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Iphone 4S, Kindle Fire HD</t>
+  </si>
+  <si>
+    <t>Nursing Assistant</t>
+  </si>
+  <si>
+    <t>10 to 12</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -245,10 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,19 +592,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1039,8 +1048,8 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4">
-        <v>42348</v>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -1067,6 +1076,56 @@
         <v>56</v>
       </c>
       <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Studies/Demographic Questionnares/DemographicDetails.xlsx
+++ b/Studies/Demographic Questionnares/DemographicDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Participant Demographic Questionnare Details</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Android</t>
+  </si>
+  <si>
+    <t>Occuparional Therapist</t>
+  </si>
+  <si>
+    <t>Iphone, Ipad</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,6 +1135,53 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>

--- a/Studies/Demographic Questionnares/DemographicDetails.xlsx
+++ b/Studies/Demographic Questionnares/DemographicDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Participant Demographic Questionnare Details</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Iphone, Ipad</t>
+  </si>
+  <si>
+    <t>Samsung Notebook 10.1 Pro</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1185,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>

--- a/Studies/Demographic Questionnares/DemographicDetails.xlsx
+++ b/Studies/Demographic Questionnares/DemographicDetails.xlsx
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
